--- a/data/trans_orig/Q5407-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB4BF386-43DF-426C-9848-B38D6DB1D57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39B90866-F480-4718-8E39-B99687209D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{019CE361-9F85-4CB8-AE3C-4282ED1717EB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD68390D-8FCE-436D-8BD2-6D9A6FA81476}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="591">
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,7 +92,7 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>10,09%</t>
+    <t>10,77%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -101,7 +101,7 @@
     <t>4,15%</t>
   </si>
   <si>
-    <t>20,59%</t>
+    <t>22,62%</t>
   </si>
   <si>
     <t>12,02%</t>
@@ -116,10 +116,7 @@
     <t>7,93%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>19,24%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -128,7 +125,7 @@
     <t>95,85%</t>
   </si>
   <si>
-    <t>79,41%</t>
+    <t>77,38%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -146,10 +143,10 @@
     <t>90,1%</t>
   </si>
   <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,7 +158,7 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>6,57%</t>
+    <t>6,88%</t>
   </si>
   <si>
     <t>7,74%</t>
@@ -176,19 +173,19 @@
     <t>5,42%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>7,08%</t>
@@ -203,19 +200,19 @@
     <t>9,79%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>84,25%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>85,18%</t>
@@ -230,1630 +227,1591 @@
     <t>84,79%</t>
   </si>
   <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
     <t>79,2%</t>
   </si>
   <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>3,57%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>9,88%</t>
+    <t>9,85%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>11,17%</t>
   </si>
   <si>
     <t>84,32%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
+    <t>68,46%</t>
   </si>
   <si>
     <t>77,33%</t>
   </si>
   <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>75,09%</t>
   </si>
 </sst>
 </file>
@@ -2265,7 +2223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF3EE9A-9609-4BF7-A0AA-4F6E4CC02E39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4181D83A-05D6-4972-9833-17C70E5D3436}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2473,16 +2431,16 @@
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>24</v>
@@ -2491,13 +2449,13 @@
         <v>25280</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -2506,13 +2464,13 @@
         <v>20399</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>48</v>
@@ -2521,13 +2479,13 @@
         <v>45679</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2500,13 @@
         <v>26374</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -2557,13 +2515,13 @@
         <v>24325</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -2572,18 +2530,18 @@
         <v>50699</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2595,13 +2553,13 @@
         <v>1895</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -2610,13 +2568,13 @@
         <v>9688</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -2625,13 +2583,13 @@
         <v>11582</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2604,13 @@
         <v>12063</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -2661,13 +2619,13 @@
         <v>8869</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -2676,19 +2634,19 @@
         <v>20932</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>79</v>
@@ -2697,13 +2655,13 @@
         <v>74657</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -2712,28 +2670,28 @@
         <v>106655</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>185</v>
       </c>
       <c r="N10" s="7">
-        <v>181311</v>
+        <v>181312</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2706,13 @@
         <v>88615</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -2763,33 +2721,33 @@
         <v>125211</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2801,13 +2759,13 @@
         <v>5759</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -2894,7 +2852,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>129</v>
@@ -2954,13 +2912,13 @@
         <v>145889</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>170</v>
@@ -2969,13 +2927,13 @@
         <v>182680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>316</v>
@@ -2984,13 +2942,13 @@
         <v>328568</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,7 +3001,7 @@
         <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3016,13 @@
         <v>7106</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -3073,13 +3031,13 @@
         <v>11497</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -3088,19 +3046,19 @@
         <v>18603</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>95</v>
@@ -3109,13 +3067,13 @@
         <v>97265</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -3124,13 +3082,13 @@
         <v>115050</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M18" s="7">
         <v>215</v>
@@ -3139,13 +3097,13 @@
         <v>212315</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3118,13 @@
         <v>104371</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>140</v>
@@ -3175,13 +3133,13 @@
         <v>135850</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>242</v>
@@ -3190,18 +3148,18 @@
         <v>240221</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3213,13 +3171,13 @@
         <v>2506</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3228,13 +3186,13 @@
         <v>9786</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -3243,13 +3201,13 @@
         <v>12292</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3222,13 @@
         <v>9737</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -3279,7 +3237,7 @@
         <v>26200</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>128</v>
@@ -3306,7 +3264,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>142</v>
@@ -3333,10 +3291,10 @@
         <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>309</v>
@@ -3345,13 +3303,13 @@
         <v>297767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3324,13 @@
         <v>137217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>200</v>
@@ -3381,13 +3339,13 @@
         <v>208777</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>356</v>
@@ -3396,13 +3354,13 @@
         <v>345995</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3377,13 @@
         <v>10160</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -3434,13 +3392,13 @@
         <v>38380</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>47</v>
@@ -3449,13 +3407,13 @@
         <v>48540</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3428,13 @@
         <v>40416</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -3485,13 +3443,13 @@
         <v>80244</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -3500,19 +3458,19 @@
         <v>120660</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>469</v>
@@ -3521,13 +3479,13 @@
         <v>451890</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>552</v>
@@ -3536,13 +3494,13 @@
         <v>558217</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>1021</v>
@@ -3551,13 +3509,13 @@
         <v>1010108</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3530,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3587,13 +3545,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3602,18 +3560,18 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3634,7 +3592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F5DAAF-9E6B-451B-9FB7-AC0558326DED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF3502C-D84E-4808-B383-4067CC3F2D91}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3651,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3764,7 +3722,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3773,13 +3731,13 @@
         <v>2303</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3788,13 +3746,13 @@
         <v>2303</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3767,13 @@
         <v>3561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3824,13 +3782,13 @@
         <v>3240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3839,19 +3797,19 @@
         <v>6801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>20</v>
@@ -3860,13 +3818,13 @@
         <v>17637</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -3875,13 +3833,13 @@
         <v>19650</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -3890,13 +3848,13 @@
         <v>37288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3869,13 @@
         <v>21198</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3926,13 +3884,13 @@
         <v>25194</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -3941,18 +3899,18 @@
         <v>46392</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3964,13 +3922,13 @@
         <v>4241</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3979,13 +3937,13 @@
         <v>15588</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -3994,13 +3952,13 @@
         <v>19829</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +3973,13 @@
         <v>7355</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -4048,16 +4006,16 @@
         <v>205</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>94</v>
@@ -4066,13 +4024,13 @@
         <v>106754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>102</v>
@@ -4081,13 +4039,13 @@
         <v>106892</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>196</v>
@@ -4096,13 +4054,13 @@
         <v>213647</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4075,13 @@
         <v>118350</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -4132,13 +4090,13 @@
         <v>141592</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>239</v>
@@ -4147,18 +4105,18 @@
         <v>259942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4170,13 +4128,13 @@
         <v>15263</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -4185,13 +4143,13 @@
         <v>32711</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -4200,13 +4158,13 @@
         <v>47974</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4179,13 @@
         <v>16074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4236,13 +4194,13 @@
         <v>30443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -4251,19 +4209,19 @@
         <v>46517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>111</v>
@@ -4272,13 +4230,13 @@
         <v>123541</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -4287,13 +4245,13 @@
         <v>128266</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>231</v>
@@ -4302,13 +4260,13 @@
         <v>251807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4281,13 @@
         <v>154878</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>177</v>
@@ -4338,13 +4296,13 @@
         <v>191420</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>315</v>
@@ -4353,13 +4311,13 @@
         <v>346298</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4334,13 @@
         <v>6471</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -4391,13 +4349,13 @@
         <v>20636</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4406,13 +4364,13 @@
         <v>27107</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4385,13 @@
         <v>12906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -4442,13 +4400,13 @@
         <v>15966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -4457,19 +4415,19 @@
         <v>28871</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>75</v>
@@ -4478,13 +4436,13 @@
         <v>84222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H18" s="7">
         <v>96</v>
@@ -4493,13 +4451,13 @@
         <v>104417</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="M18" s="7">
         <v>171</v>
@@ -4508,13 +4466,13 @@
         <v>188639</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4487,13 @@
         <v>103598</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>129</v>
@@ -4544,13 +4502,13 @@
         <v>141019</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>219</v>
@@ -4559,18 +4517,18 @@
         <v>244617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4582,13 +4540,13 @@
         <v>8878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4597,13 +4555,13 @@
         <v>17693</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -4651,10 +4609,10 @@
         <v>281</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -4663,19 +4621,19 @@
         <v>49101</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>127</v>
@@ -4684,13 +4642,13 @@
         <v>138057</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H22" s="7">
         <v>182</v>
@@ -4699,13 +4657,13 @@
         <v>191634</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>309</v>
@@ -4714,13 +4672,13 @@
         <v>329691</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4693,13 @@
         <v>161613</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>231</v>
@@ -4750,13 +4708,13 @@
         <v>243750</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>378</v>
@@ -4765,13 +4723,13 @@
         <v>405363</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4746,13 @@
         <v>34853</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H24" s="7">
         <v>81</v>
@@ -4803,13 +4761,13 @@
         <v>88930</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="M24" s="7">
         <v>112</v>
@@ -4818,13 +4776,13 @@
         <v>123784</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4797,13 @@
         <v>54573</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -4854,13 +4812,13 @@
         <v>103184</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -4869,19 +4827,19 @@
         <v>157757</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>284</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>427</v>
@@ -4890,13 +4848,13 @@
         <v>470211</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H26" s="7">
         <v>518</v>
@@ -4905,13 +4863,13 @@
         <v>550860</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M26" s="7">
         <v>945</v>
@@ -4920,13 +4878,13 @@
         <v>1021071</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4899,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -4956,13 +4914,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -4971,18 +4929,18 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -5003,7 +4961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91E8DD7-4533-4753-9B44-A0F9BC8D364A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD7600A-6DAC-472B-9E85-A8990D2BDF72}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5020,7 +4978,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5127,13 +5085,13 @@
         <v>2637</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5142,13 +5100,13 @@
         <v>2108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5157,13 +5115,13 @@
         <v>4745</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,10 +5139,10 @@
         <v>80</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5193,13 +5151,13 @@
         <v>6900</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -5208,19 +5166,19 @@
         <v>9617</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>18</v>
@@ -5229,13 +5187,13 @@
         <v>16334</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -5244,13 +5202,13 @@
         <v>14431</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M6" s="7">
         <v>32</v>
@@ -5259,13 +5217,13 @@
         <v>30765</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5238,13 @@
         <v>21688</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5295,13 +5253,13 @@
         <v>23439</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5310,18 +5268,18 @@
         <v>45127</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5333,13 +5291,13 @@
         <v>9499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5348,13 +5306,13 @@
         <v>8186</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -5363,13 +5321,13 @@
         <v>17685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5342,13 @@
         <v>5781</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>351</v>
+        <v>245</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -5399,13 +5357,13 @@
         <v>26797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -5414,19 +5372,19 @@
         <v>32577</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>106</v>
@@ -5435,13 +5393,13 @@
         <v>99766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -5450,13 +5408,13 @@
         <v>114969</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
@@ -5465,13 +5423,13 @@
         <v>214735</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5444,13 @@
         <v>115046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>135</v>
@@ -5501,13 +5459,13 @@
         <v>149951</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>259</v>
@@ -5516,18 +5474,18 @@
         <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5539,13 +5497,13 @@
         <v>7732</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>128</v>
+        <v>366</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -5554,13 +5512,13 @@
         <v>18418</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -5569,13 +5527,13 @@
         <v>26150</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5548,13 @@
         <v>20288</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5605,13 +5563,13 @@
         <v>35808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -5620,19 +5578,19 @@
         <v>56097</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>144</v>
@@ -5641,13 +5599,13 @@
         <v>136921</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>139</v>
@@ -5656,13 +5614,13 @@
         <v>164936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>283</v>
@@ -5671,13 +5629,13 @@
         <v>301858</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5650,13 @@
         <v>164941</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>182</v>
@@ -5707,13 +5665,13 @@
         <v>219163</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>357</v>
@@ -5722,13 +5680,13 @@
         <v>384104</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5703,13 @@
         <v>2785</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5760,13 +5718,13 @@
         <v>16674</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5775,13 +5733,13 @@
         <v>19459</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5754,13 @@
         <v>9487</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -5811,13 +5769,13 @@
         <v>23915</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -5826,19 +5784,19 @@
         <v>33402</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>101</v>
@@ -5847,13 +5805,13 @@
         <v>102764</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>409</v>
+        <v>334</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H18" s="7">
         <v>85</v>
@@ -5862,13 +5820,13 @@
         <v>102006</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>412</v>
+        <v>236</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M18" s="7">
         <v>186</v>
@@ -5877,13 +5835,13 @@
         <v>204770</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5856,13 @@
         <v>115035</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>118</v>
@@ -5913,13 +5871,13 @@
         <v>142596</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>232</v>
@@ -5928,18 +5886,18 @@
         <v>257631</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5951,13 +5909,13 @@
         <v>9608</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5969,10 +5927,10 @@
         <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>24</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -5984,10 +5942,10 @@
         <v>68</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>304</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +5960,13 @@
         <v>12205</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -6017,13 +5975,13 @@
         <v>40443</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M21" s="7">
         <v>44</v>
@@ -6032,19 +5990,19 @@
         <v>52648</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>166</v>
@@ -6053,13 +6011,13 @@
         <v>152805</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>160</v>
@@ -6068,13 +6026,13 @@
         <v>192274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
@@ -6083,13 +6041,13 @@
         <v>345079</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6062,13 @@
         <v>174618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>198</v>
@@ -6119,13 +6077,13 @@
         <v>242781</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>388</v>
@@ -6134,13 +6092,13 @@
         <v>417400</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6115,13 @@
         <v>32260</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>438</v>
+        <v>97</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -6172,13 +6130,13 @@
         <v>55450</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -6187,13 +6145,13 @@
         <v>87710</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>443</v>
+        <v>181</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6166,13 @@
         <v>50478</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -6223,13 +6181,13 @@
         <v>133864</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>166</v>
@@ -6238,19 +6196,19 @@
         <v>184342</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>535</v>
@@ -6259,13 +6217,13 @@
         <v>508590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>503</v>
@@ -6274,13 +6232,13 @@
         <v>588617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>1038</v>
@@ -6289,13 +6247,13 @@
         <v>1097207</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6268,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -6325,13 +6283,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -6340,18 +6298,18 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6372,7 +6330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431DA000-9052-4CAE-B0FC-ACC7A88DFB7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2ACE3B-8EC7-4C69-A65F-7577C1881F2D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6389,7 +6347,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6496,13 +6454,13 @@
         <v>724</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>466</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -6511,13 +6469,13 @@
         <v>7174</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>461</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -6526,13 +6484,13 @@
         <v>7898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6505,13 @@
         <v>1341</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -6562,13 +6520,13 @@
         <v>7690</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>467</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>474</v>
+        <v>402</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -6577,19 +6535,19 @@
         <v>9030</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>43</v>
@@ -6598,13 +6556,13 @@
         <v>27600</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H6" s="7">
         <v>76</v>
@@ -6613,13 +6571,13 @@
         <v>30557</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>386</v>
+        <v>475</v>
       </c>
       <c r="M6" s="7">
         <v>119</v>
@@ -6628,13 +6586,13 @@
         <v>58157</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6607,13 @@
         <v>29664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -6664,13 +6622,13 @@
         <v>45421</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>159</v>
@@ -6679,18 +6637,18 @@
         <v>75085</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6702,13 +6660,13 @@
         <v>9379</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -6717,13 +6675,13 @@
         <v>22446</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M8" s="7">
         <v>69</v>
@@ -6732,13 +6690,13 @@
         <v>31826</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6711,13 @@
         <v>14358</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>492</v>
+        <v>76</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
@@ -6768,13 +6726,13 @@
         <v>29474</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M9" s="7">
         <v>89</v>
@@ -6783,19 +6741,19 @@
         <v>43832</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>163</v>
@@ -6804,13 +6762,13 @@
         <v>100480</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H10" s="7">
         <v>218</v>
@@ -6819,13 +6777,13 @@
         <v>95299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M10" s="7">
         <v>381</v>
@@ -6834,13 +6792,13 @@
         <v>195779</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,13 +6813,13 @@
         <v>124217</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>334</v>
@@ -6870,13 +6828,13 @@
         <v>147219</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>539</v>
@@ -6885,18 +6843,18 @@
         <v>271436</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6908,13 +6866,13 @@
         <v>12559</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H12" s="7">
         <v>52</v>
@@ -6923,13 +6881,13 @@
         <v>26326</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>514</v>
+        <v>103</v>
       </c>
       <c r="M12" s="7">
         <v>75</v>
@@ -6938,13 +6896,13 @@
         <v>38885</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,13 +6917,13 @@
         <v>13604</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>511</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -6974,13 +6932,13 @@
         <v>48533</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -6989,19 +6947,19 @@
         <v>62137</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>129</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>212</v>
@@ -7010,13 +6968,13 @@
         <v>147682</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H14" s="7">
         <v>309</v>
@@ -7025,13 +6983,13 @@
         <v>166982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M14" s="7">
         <v>521</v>
@@ -7040,13 +6998,13 @@
         <v>314665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7019,13 @@
         <v>173846</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>448</v>
@@ -7076,13 +7034,13 @@
         <v>241841</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>702</v>
@@ -7091,13 +7049,13 @@
         <v>415687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,13 +7072,13 @@
         <v>7938</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -7129,13 +7087,13 @@
         <v>17349</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -7144,13 +7102,13 @@
         <v>25287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>270</v>
+        <v>533</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,13 +7123,13 @@
         <v>14358</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>542</v>
+        <v>370</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>544</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -7180,13 +7138,13 @@
         <v>30126</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>538</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -7195,19 +7153,19 @@
         <v>44484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>539</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>165</v>
@@ -7216,13 +7174,13 @@
         <v>125893</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H18" s="7">
         <v>213</v>
@@ -7231,13 +7189,13 @@
         <v>232990</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>262</v>
+        <v>544</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="M18" s="7">
         <v>378</v>
@@ -7246,13 +7204,13 @@
         <v>358884</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>551</v>
+        <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,13 +7225,13 @@
         <v>148190</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>287</v>
@@ -7282,13 +7240,13 @@
         <v>280465</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>480</v>
@@ -7297,18 +7255,18 @@
         <v>428655</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7320,13 +7278,13 @@
         <v>12126</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>550</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -7335,13 +7293,13 @@
         <v>32653</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M20" s="7">
         <v>75</v>
@@ -7350,13 +7308,13 @@
         <v>44779</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>560</v>
+        <v>391</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7371,13 +7329,13 @@
         <v>22745</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>562</v>
+        <v>307</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="H21" s="7">
         <v>92</v>
@@ -7386,13 +7344,13 @@
         <v>58839</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="M21" s="7">
         <v>125</v>
@@ -7401,19 +7359,19 @@
         <v>81584</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>274</v>
@@ -7422,13 +7380,13 @@
         <v>185373</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="H22" s="7">
         <v>375</v>
@@ -7437,13 +7395,13 @@
         <v>216825</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="M22" s="7">
         <v>649</v>
@@ -7452,13 +7410,13 @@
         <v>402199</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,13 +7431,13 @@
         <v>220244</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>522</v>
@@ -7488,13 +7446,13 @@
         <v>308317</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>849</v>
@@ -7503,13 +7461,13 @@
         <v>528561</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,13 +7484,13 @@
         <v>42727</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>581</v>
+        <v>198</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H24" s="7">
         <v>202</v>
@@ -7541,13 +7499,13 @@
         <v>105948</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>74</v>
+        <v>576</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>584</v>
+        <v>371</v>
       </c>
       <c r="M24" s="7">
         <v>273</v>
@@ -7556,13 +7514,13 @@
         <v>148675</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,13 +7535,13 @@
         <v>66406</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>588</v>
+        <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="H25" s="7">
         <v>310</v>
@@ -7592,13 +7550,13 @@
         <v>174661</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>590</v>
+        <v>258</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="M25" s="7">
         <v>408</v>
@@ -7607,19 +7565,19 @@
         <v>241066</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>595</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>857</v>
@@ -7628,13 +7586,13 @@
         <v>587029</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="H26" s="7">
         <v>1191</v>
@@ -7643,13 +7601,13 @@
         <v>742654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>601</v>
+        <v>214</v>
       </c>
       <c r="M26" s="7">
         <v>2048</v>
@@ -7658,13 +7616,13 @@
         <v>1329683</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>604</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,13 +7637,13 @@
         <v>696161</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1703</v>
@@ -7694,13 +7652,13 @@
         <v>1023263</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>2729</v>
@@ -7709,18 +7667,18 @@
         <v>1719424</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5407-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39B90866-F480-4718-8E39-B99687209D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCE510EC-272C-4B30-9768-9809A252B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD68390D-8FCE-436D-8BD2-6D9A6FA81476}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9161A35-1660-49A9-9085-B70C4AA98AEF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="597">
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Totalmente incapaz</t>
@@ -86,13 +86,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>20,56%</t>
+    <t>20,17%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>10,77%</t>
+    <t>9,95%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -101,1717 +101,1735 @@
     <t>4,15%</t>
   </si>
   <si>
-    <t>22,62%</t>
+    <t>19,99%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>88,91%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>83,72%</t>
   </si>
   <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
   </si>
   <si>
     <t>82,0%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4181D83A-05D6-4972-9833-17C70E5D3436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF73DF7-1035-4619-972F-C78A37BE4829}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2431,16 +2449,16 @@
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>24</v>
@@ -2449,13 +2467,13 @@
         <v>25280</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -2464,13 +2482,13 @@
         <v>20399</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>48</v>
@@ -2479,13 +2497,13 @@
         <v>45679</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2518,13 @@
         <v>26374</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -2515,13 +2533,13 @@
         <v>24325</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -2530,18 +2548,18 @@
         <v>50699</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2553,13 +2571,13 @@
         <v>1895</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -2568,13 +2586,13 @@
         <v>9688</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -2583,13 +2601,13 @@
         <v>11582</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2622,13 @@
         <v>12063</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -2619,13 +2637,13 @@
         <v>8869</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -2634,19 +2652,19 @@
         <v>20932</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7">
         <v>79</v>
@@ -2655,13 +2673,13 @@
         <v>74657</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -2670,28 +2688,28 @@
         <v>106655</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>185</v>
       </c>
       <c r="N10" s="7">
-        <v>181312</v>
+        <v>181311</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2724,13 @@
         <v>88615</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -2721,33 +2739,33 @@
         <v>125211</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2759,13 +2777,13 @@
         <v>5759</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -2774,13 +2792,13 @@
         <v>8603</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -2789,13 +2807,13 @@
         <v>14362</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2828,13 @@
         <v>10415</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -2825,13 +2843,13 @@
         <v>30754</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -2840,19 +2858,19 @@
         <v>41169</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>129</v>
@@ -2861,13 +2879,13 @@
         <v>129714</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -2876,13 +2894,13 @@
         <v>143323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -2891,13 +2909,13 @@
         <v>273036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2930,13 @@
         <v>145889</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>170</v>
@@ -2927,13 +2945,13 @@
         <v>182680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>316</v>
@@ -2942,18 +2960,18 @@
         <v>328568</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2971,7 +2989,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2980,13 +2998,13 @@
         <v>9303</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2995,13 +3013,13 @@
         <v>9303</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3034,13 @@
         <v>7106</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -3031,13 +3049,13 @@
         <v>11497</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -3046,19 +3064,19 @@
         <v>18603</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>95</v>
@@ -3067,13 +3085,13 @@
         <v>97265</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -3082,13 +3100,13 @@
         <v>115050</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>215</v>
@@ -3097,13 +3115,13 @@
         <v>212315</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3136,13 @@
         <v>104371</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <v>140</v>
@@ -3133,13 +3151,13 @@
         <v>135850</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>242</v>
@@ -3148,18 +3166,18 @@
         <v>240221</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3171,13 +3189,13 @@
         <v>2506</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3186,13 +3204,13 @@
         <v>9786</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -3201,13 +3219,13 @@
         <v>12292</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3240,13 @@
         <v>9737</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -3237,13 +3255,13 @@
         <v>26200</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -3252,19 +3270,19 @@
         <v>35936</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="7">
         <v>142</v>
@@ -3273,13 +3291,13 @@
         <v>124974</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -3288,13 +3306,13 @@
         <v>172792</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>309</v>
@@ -3303,13 +3321,13 @@
         <v>297767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3342,13 @@
         <v>137217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
         <v>200</v>
@@ -3339,13 +3357,13 @@
         <v>208777</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
         <v>356</v>
@@ -3354,13 +3372,13 @@
         <v>345995</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3395,13 @@
         <v>10160</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -3392,13 +3410,13 @@
         <v>38380</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M24" s="7">
         <v>47</v>
@@ -3407,13 +3425,13 @@
         <v>48540</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3446,13 @@
         <v>40416</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -3443,13 +3461,13 @@
         <v>80244</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -3458,19 +3476,19 @@
         <v>120660</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
         <v>469</v>
@@ -3479,13 +3497,13 @@
         <v>451890</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>552</v>
@@ -3494,13 +3512,13 @@
         <v>558217</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>1021</v>
@@ -3509,13 +3527,13 @@
         <v>1010108</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3548,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3545,13 +3563,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3560,18 +3578,18 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3592,7 +3610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF3502C-D84E-4808-B383-4067CC3F2D91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21494B15-54FC-49EF-9B54-43B6301BDF1C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3609,7 +3627,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3722,7 +3740,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3731,13 +3749,13 @@
         <v>2303</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3746,13 +3764,13 @@
         <v>2303</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3785,13 @@
         <v>3561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3782,13 +3800,13 @@
         <v>3240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3797,19 +3815,19 @@
         <v>6801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>20</v>
@@ -3818,13 +3836,13 @@
         <v>17637</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -3833,13 +3851,13 @@
         <v>19650</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -3848,13 +3866,13 @@
         <v>37288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3887,13 @@
         <v>21198</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3884,13 +3902,13 @@
         <v>25194</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -3899,18 +3917,18 @@
         <v>46392</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3922,13 +3940,13 @@
         <v>4241</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3937,13 +3955,13 @@
         <v>15588</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -3952,13 +3970,13 @@
         <v>19829</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3991,13 @@
         <v>7355</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -3988,13 +4006,13 @@
         <v>19112</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -4003,19 +4021,19 @@
         <v>26467</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7">
         <v>94</v>
@@ -4024,13 +4042,13 @@
         <v>106754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>102</v>
@@ -4039,13 +4057,13 @@
         <v>106892</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>196</v>
@@ -4054,13 +4072,13 @@
         <v>213647</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4093,13 @@
         <v>118350</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -4090,13 +4108,13 @@
         <v>141592</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
         <v>239</v>
@@ -4105,18 +4123,18 @@
         <v>259942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4128,13 +4146,13 @@
         <v>15263</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -4143,13 +4161,13 @@
         <v>32711</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -4158,13 +4176,13 @@
         <v>47974</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4197,13 @@
         <v>16074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4194,13 +4212,13 @@
         <v>30443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -4209,19 +4227,19 @@
         <v>46517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>111</v>
@@ -4230,13 +4248,13 @@
         <v>123541</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -4245,13 +4263,13 @@
         <v>128266</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>231</v>
@@ -4260,13 +4278,13 @@
         <v>251807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4299,13 @@
         <v>154878</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>177</v>
@@ -4296,13 +4314,13 @@
         <v>191420</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>315</v>
@@ -4311,18 +4329,18 @@
         <v>346298</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4334,13 +4352,13 @@
         <v>6471</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -4349,13 +4367,13 @@
         <v>20636</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4364,13 +4382,13 @@
         <v>27107</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4403,13 @@
         <v>12906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -4400,13 +4418,13 @@
         <v>15966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -4415,19 +4433,19 @@
         <v>28871</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>75</v>
@@ -4436,13 +4454,13 @@
         <v>84222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H18" s="7">
         <v>96</v>
@@ -4451,13 +4469,13 @@
         <v>104417</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M18" s="7">
         <v>171</v>
@@ -4466,13 +4484,13 @@
         <v>188639</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4505,13 @@
         <v>103598</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <v>129</v>
@@ -4502,13 +4520,13 @@
         <v>141019</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>219</v>
@@ -4517,18 +4535,18 @@
         <v>244617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4540,13 +4558,13 @@
         <v>8878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4555,13 +4573,13 @@
         <v>17693</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -4570,13 +4588,13 @@
         <v>26571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4609,13 @@
         <v>14678</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -4606,13 +4624,13 @@
         <v>34423</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -4621,19 +4639,19 @@
         <v>49101</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="7">
         <v>127</v>
@@ -4642,13 +4660,13 @@
         <v>138057</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>182</v>
@@ -4657,13 +4675,13 @@
         <v>191634</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>309</v>
@@ -4672,13 +4690,13 @@
         <v>329691</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4711,13 @@
         <v>161613</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
         <v>231</v>
@@ -4708,13 +4726,13 @@
         <v>243750</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
         <v>378</v>
@@ -4723,13 +4741,13 @@
         <v>405363</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4764,13 @@
         <v>34853</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H24" s="7">
         <v>81</v>
@@ -4761,13 +4779,13 @@
         <v>88930</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="M24" s="7">
         <v>112</v>
@@ -4776,13 +4794,13 @@
         <v>123784</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>300</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4815,13 @@
         <v>54573</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>303</v>
+        <v>52</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -4812,13 +4830,13 @@
         <v>103184</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -4827,19 +4845,19 @@
         <v>157757</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
         <v>427</v>
@@ -4848,13 +4866,13 @@
         <v>470211</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
         <v>518</v>
@@ -4863,13 +4881,13 @@
         <v>550860</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M26" s="7">
         <v>945</v>
@@ -4878,13 +4896,13 @@
         <v>1021071</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>56</v>
+        <v>317</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4917,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -4914,13 +4932,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -4929,18 +4947,18 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4961,7 +4979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD7600A-6DAC-472B-9E85-A8990D2BDF72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C7771E-667D-4884-991E-CB2CF21102F3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4978,7 +4996,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5085,13 +5103,13 @@
         <v>2637</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5100,13 +5118,13 @@
         <v>2108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5115,13 +5133,13 @@
         <v>4745</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5154,13 @@
         <v>2717</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5151,13 +5169,13 @@
         <v>6900</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -5166,19 +5184,19 @@
         <v>9617</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>18</v>
@@ -5187,13 +5205,13 @@
         <v>16334</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -5202,13 +5220,13 @@
         <v>14431</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M6" s="7">
         <v>32</v>
@@ -5217,13 +5235,13 @@
         <v>30765</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5256,13 @@
         <v>21688</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5253,13 +5271,13 @@
         <v>23439</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5268,18 +5286,18 @@
         <v>45127</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5291,13 +5309,13 @@
         <v>9499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5306,13 +5324,13 @@
         <v>8186</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -5321,13 +5339,13 @@
         <v>17685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5360,13 @@
         <v>5781</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>245</v>
+        <v>354</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -5357,34 +5375,34 @@
         <v>26797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>32577</v>
+        <v>32578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7">
         <v>106</v>
@@ -5393,13 +5411,13 @@
         <v>99766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -5408,28 +5426,28 @@
         <v>114969</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
       </c>
       <c r="N10" s="7">
-        <v>214735</v>
+        <v>214736</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5462,13 @@
         <v>115046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>135</v>
@@ -5459,33 +5477,33 @@
         <v>149951</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5497,13 +5515,13 @@
         <v>7732</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>366</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -5512,13 +5530,13 @@
         <v>18418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>368</v>
+        <v>177</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -5527,13 +5545,13 @@
         <v>26150</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>374</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5566,13 @@
         <v>20288</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5563,13 +5581,13 @@
         <v>35808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -5578,19 +5596,19 @@
         <v>56097</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>144</v>
@@ -5599,13 +5617,13 @@
         <v>136921</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>139</v>
@@ -5614,13 +5632,13 @@
         <v>164936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>283</v>
@@ -5629,13 +5647,13 @@
         <v>301858</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5668,13 @@
         <v>164941</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>182</v>
@@ -5665,13 +5683,13 @@
         <v>219163</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>357</v>
@@ -5680,18 +5698,18 @@
         <v>384104</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5703,13 +5721,13 @@
         <v>2785</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5718,13 +5736,13 @@
         <v>16674</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5733,13 +5751,13 @@
         <v>19459</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5772,13 @@
         <v>9487</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -5769,13 +5787,13 @@
         <v>23915</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -5784,19 +5802,19 @@
         <v>33402</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>101</v>
@@ -5805,13 +5823,13 @@
         <v>102764</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>334</v>
+        <v>409</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H18" s="7">
         <v>85</v>
@@ -5820,13 +5838,13 @@
         <v>102006</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>236</v>
+        <v>412</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M18" s="7">
         <v>186</v>
@@ -5835,13 +5853,13 @@
         <v>204770</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5874,13 @@
         <v>115035</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <v>118</v>
@@ -5871,13 +5889,13 @@
         <v>142596</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>232</v>
@@ -5886,18 +5904,18 @@
         <v>257631</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5909,13 +5927,13 @@
         <v>9608</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5927,10 +5945,10 @@
         <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -5939,13 +5957,13 @@
         <v>19672</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5978,13 @@
         <v>12205</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>418</v>
+        <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -5975,13 +5993,13 @@
         <v>40443</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="M21" s="7">
         <v>44</v>
@@ -5990,19 +6008,19 @@
         <v>52648</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>328</v>
+        <v>428</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>424</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="7">
         <v>166</v>
@@ -6011,13 +6029,13 @@
         <v>152805</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>160</v>
@@ -6026,13 +6044,13 @@
         <v>192274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
@@ -6041,13 +6059,13 @@
         <v>345079</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6080,13 @@
         <v>174618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
         <v>198</v>
@@ -6077,13 +6095,13 @@
         <v>242781</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
         <v>388</v>
@@ -6092,13 +6110,13 @@
         <v>417400</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6133,13 @@
         <v>32260</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>97</v>
+        <v>439</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -6130,13 +6148,13 @@
         <v>55450</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -6145,13 +6163,13 @@
         <v>87710</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>181</v>
+        <v>444</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6184,13 @@
         <v>50478</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>197</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -6181,13 +6199,13 @@
         <v>133864</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>166</v>
@@ -6196,19 +6214,19 @@
         <v>184342</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
         <v>535</v>
@@ -6217,13 +6235,13 @@
         <v>508590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>503</v>
@@ -6232,13 +6250,13 @@
         <v>588617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>1038</v>
@@ -6247,13 +6265,13 @@
         <v>1097207</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6286,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -6283,13 +6301,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -6298,18 +6316,18 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6330,7 +6348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2ACE3B-8EC7-4C69-A65F-7577C1881F2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96213B7-0D3D-40CD-A2A2-93F2775BDDB0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6347,7 +6365,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6454,13 +6472,13 @@
         <v>724</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>459</v>
+        <v>73</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -6469,13 +6487,13 @@
         <v>7174</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -6484,13 +6502,13 @@
         <v>7898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>444</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6523,13 @@
         <v>1341</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -6520,13 +6538,13 @@
         <v>7690</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>402</v>
+        <v>475</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -6535,19 +6553,19 @@
         <v>9030</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>373</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>43</v>
@@ -6556,13 +6574,13 @@
         <v>27600</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="H6" s="7">
         <v>76</v>
@@ -6571,13 +6589,13 @@
         <v>30557</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="M6" s="7">
         <v>119</v>
@@ -6586,13 +6604,13 @@
         <v>58157</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>478</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6625,13 @@
         <v>29664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -6622,13 +6640,13 @@
         <v>45421</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>159</v>
@@ -6637,18 +6655,18 @@
         <v>75085</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6660,13 +6678,13 @@
         <v>9379</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>480</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -6675,13 +6693,13 @@
         <v>22446</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="M8" s="7">
         <v>69</v>
@@ -6690,13 +6708,13 @@
         <v>31826</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>489</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>484</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,13 +6729,13 @@
         <v>14358</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>76</v>
+        <v>399</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
@@ -6726,13 +6744,13 @@
         <v>29474</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>488</v>
+        <v>281</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="M9" s="7">
         <v>89</v>
@@ -6741,19 +6759,19 @@
         <v>43832</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7">
         <v>163</v>
@@ -6762,13 +6780,13 @@
         <v>100480</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="H10" s="7">
         <v>218</v>
@@ -6777,13 +6795,13 @@
         <v>95299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="M10" s="7">
         <v>381</v>
@@ -6792,13 +6810,13 @@
         <v>195779</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,13 +6831,13 @@
         <v>124217</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>334</v>
@@ -6828,13 +6846,13 @@
         <v>147219</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
         <v>539</v>
@@ -6843,18 +6861,18 @@
         <v>271436</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6866,13 +6884,13 @@
         <v>12559</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>504</v>
+        <v>153</v>
       </c>
       <c r="H12" s="7">
         <v>52</v>
@@ -6881,13 +6899,13 @@
         <v>26326</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>103</v>
+        <v>511</v>
       </c>
       <c r="M12" s="7">
         <v>75</v>
@@ -6896,13 +6914,13 @@
         <v>38885</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,13 +6935,13 @@
         <v>13604</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -6932,13 +6950,13 @@
         <v>48533</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>518</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -6947,19 +6965,19 @@
         <v>62137</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>212</v>
@@ -6968,13 +6986,13 @@
         <v>147682</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="H14" s="7">
         <v>309</v>
@@ -6983,13 +7001,13 @@
         <v>166982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="M14" s="7">
         <v>521</v>
@@ -6998,13 +7016,13 @@
         <v>314665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7019,13 +7037,13 @@
         <v>173846</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>448</v>
@@ -7034,13 +7052,13 @@
         <v>241841</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>702</v>
@@ -7049,18 +7067,18 @@
         <v>415687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7072,13 +7090,13 @@
         <v>7938</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -7087,13 +7105,13 @@
         <v>17349</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -7102,13 +7120,13 @@
         <v>25287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,13 +7141,13 @@
         <v>14358</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>370</v>
+        <v>541</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>535</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -7138,13 +7156,13 @@
         <v>30126</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -7153,19 +7171,19 @@
         <v>44484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>539</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>165</v>
@@ -7174,13 +7192,13 @@
         <v>125893</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>542</v>
+        <v>58</v>
       </c>
       <c r="H18" s="7">
         <v>213</v>
@@ -7189,13 +7207,13 @@
         <v>232990</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M18" s="7">
         <v>378</v>
@@ -7204,13 +7222,13 @@
         <v>358884</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>550</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,13 +7243,13 @@
         <v>148190</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <v>287</v>
@@ -7240,13 +7258,13 @@
         <v>280465</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>480</v>
@@ -7255,18 +7273,18 @@
         <v>428655</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7278,13 +7296,13 @@
         <v>12126</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -7293,13 +7311,13 @@
         <v>32653</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="M20" s="7">
         <v>75</v>
@@ -7308,13 +7326,13 @@
         <v>44779</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>391</v>
+        <v>560</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,13 +7347,13 @@
         <v>22745</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>307</v>
+        <v>562</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="H21" s="7">
         <v>92</v>
@@ -7344,13 +7362,13 @@
         <v>58839</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="M21" s="7">
         <v>125</v>
@@ -7359,19 +7377,19 @@
         <v>81584</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="7">
         <v>274</v>
@@ -7380,13 +7398,13 @@
         <v>185373</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>565</v>
+        <v>35</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="H22" s="7">
         <v>375</v>
@@ -7395,13 +7413,13 @@
         <v>216825</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="M22" s="7">
         <v>649</v>
@@ -7410,13 +7428,13 @@
         <v>402199</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,13 +7449,13 @@
         <v>220244</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
         <v>522</v>
@@ -7446,13 +7464,13 @@
         <v>308317</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
         <v>849</v>
@@ -7461,13 +7479,13 @@
         <v>528561</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,13 +7502,13 @@
         <v>42727</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>198</v>
+        <v>580</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="H24" s="7">
         <v>202</v>
@@ -7499,13 +7517,13 @@
         <v>105948</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M24" s="7">
         <v>273</v>
@@ -7514,13 +7532,13 @@
         <v>148675</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>578</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,13 +7553,13 @@
         <v>66406</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>579</v>
+        <v>251</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>580</v>
+        <v>333</v>
       </c>
       <c r="H25" s="7">
         <v>310</v>
@@ -7550,13 +7568,13 @@
         <v>174661</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>258</v>
+        <v>585</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>580</v>
+        <v>333</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="M25" s="7">
         <v>408</v>
@@ -7565,19 +7583,19 @@
         <v>241066</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>284</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
         <v>857</v>
@@ -7586,13 +7604,13 @@
         <v>587029</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H26" s="7">
         <v>1191</v>
@@ -7601,13 +7619,13 @@
         <v>742654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>588</v>
+        <v>366</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>2048</v>
@@ -7616,13 +7634,13 @@
         <v>1329683</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>426</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,13 +7655,13 @@
         <v>696161</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
         <v>1703</v>
@@ -7652,13 +7670,13 @@
         <v>1023263</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
         <v>2729</v>
@@ -7667,18 +7685,18 @@
         <v>1719424</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5407-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCE510EC-272C-4B30-9768-9809A252B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07ED1FAB-768B-4B4D-B487-3512EFA91550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9161A35-1660-49A9-9085-B70C4AA98AEF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B59A0CC9-8ABE-472B-8122-A18FA8899F49}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="605">
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>20,17%</t>
+    <t>20,56%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>9,95%</t>
+    <t>10,09%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -101,1735 +101,1759 @@
     <t>4,15%</t>
   </si>
   <si>
-    <t>19,99%</t>
+    <t>20,59%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>13,61%</t>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>8,3%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
+    <t>15,88%</t>
   </si>
   <si>
     <t>84,32%</t>
   </si>
   <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
     <t>77,33%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF73DF7-1035-4619-972F-C78A37BE4829}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0112C5-FBE4-49A8-846E-299ABAE0EEBE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2783,7 +2807,7 @@
         <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -2792,13 +2816,13 @@
         <v>8603</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -2807,13 +2831,13 @@
         <v>14362</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2852,13 @@
         <v>10415</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -2843,13 +2867,13 @@
         <v>30754</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -2858,13 +2882,13 @@
         <v>41169</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2903,13 @@
         <v>129714</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -2894,13 +2918,13 @@
         <v>143323</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -2909,13 +2933,13 @@
         <v>273036</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,7 +2995,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2989,7 +3013,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2998,13 +3022,13 @@
         <v>9303</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3013,13 +3037,13 @@
         <v>9303</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3058,13 @@
         <v>7106</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -3049,13 +3073,13 @@
         <v>11497</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -3067,10 +3091,10 @@
         <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3109,13 @@
         <v>97265</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -3100,13 +3124,13 @@
         <v>115050</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>215</v>
@@ -3115,13 +3139,13 @@
         <v>212315</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,7 +3201,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3189,13 +3213,13 @@
         <v>2506</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3204,13 +3228,13 @@
         <v>9786</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -3219,13 +3243,13 @@
         <v>12292</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3264,13 @@
         <v>9737</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -3255,13 +3279,13 @@
         <v>26200</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -3270,13 +3294,13 @@
         <v>35936</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3315,13 @@
         <v>124974</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -3306,13 +3330,13 @@
         <v>172792</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>309</v>
@@ -3321,13 +3345,13 @@
         <v>297767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3419,13 @@
         <v>10160</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -3410,13 +3434,13 @@
         <v>38380</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M24" s="7">
         <v>47</v>
@@ -3425,13 +3449,13 @@
         <v>48540</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3470,13 @@
         <v>40416</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -3461,13 +3485,13 @@
         <v>80244</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -3476,13 +3500,13 @@
         <v>120660</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3521,13 @@
         <v>451890</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>552</v>
@@ -3512,13 +3536,13 @@
         <v>558217</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>1021</v>
@@ -3527,13 +3551,13 @@
         <v>1010108</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,7 +3613,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3610,7 +3634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21494B15-54FC-49EF-9B54-43B6301BDF1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61561FBC-5D05-4014-BDC9-FE5A491B6E2F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3627,7 +3651,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3740,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3749,13 +3773,13 @@
         <v>2303</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3764,13 +3788,13 @@
         <v>2303</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3809,13 @@
         <v>3561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3800,13 +3824,13 @@
         <v>3240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3815,13 +3839,13 @@
         <v>6801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3860,13 @@
         <v>17637</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -3851,13 +3875,13 @@
         <v>19650</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -3866,13 +3890,13 @@
         <v>37288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3964,13 @@
         <v>4241</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3955,13 +3979,13 @@
         <v>15588</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -3970,13 +3994,13 @@
         <v>19829</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +4015,13 @@
         <v>7355</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -4006,13 +4030,13 @@
         <v>19112</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -4021,13 +4045,13 @@
         <v>26467</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4066,13 @@
         <v>106754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>102</v>
@@ -4057,13 +4081,13 @@
         <v>106892</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>196</v>
@@ -4072,13 +4096,13 @@
         <v>213647</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4170,13 @@
         <v>15263</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -4161,13 +4185,13 @@
         <v>32711</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -4176,13 +4200,13 @@
         <v>47974</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4221,13 @@
         <v>16074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4212,13 +4236,13 @@
         <v>30443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -4227,13 +4251,13 @@
         <v>46517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4272,13 @@
         <v>123541</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -4263,13 +4287,13 @@
         <v>128266</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>231</v>
@@ -4278,13 +4302,13 @@
         <v>251807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,7 +4364,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4352,13 +4376,13 @@
         <v>6471</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -4367,13 +4391,13 @@
         <v>20636</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4382,13 +4406,13 @@
         <v>27107</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4427,13 @@
         <v>12906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -4418,13 +4442,13 @@
         <v>15966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -4433,13 +4457,13 @@
         <v>28871</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4478,13 @@
         <v>84222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H18" s="7">
         <v>96</v>
@@ -4469,13 +4493,13 @@
         <v>104417</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="M18" s="7">
         <v>171</v>
@@ -4484,13 +4508,13 @@
         <v>188639</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,7 +4570,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4558,13 +4582,13 @@
         <v>8878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4573,13 +4597,13 @@
         <v>17693</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -4588,13 +4612,13 @@
         <v>26571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4633,13 @@
         <v>14678</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -4624,13 +4648,13 @@
         <v>34423</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -4639,13 +4663,13 @@
         <v>49101</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4684,13 @@
         <v>138057</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>182</v>
@@ -4675,13 +4699,13 @@
         <v>191634</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>309</v>
@@ -4690,13 +4714,13 @@
         <v>329691</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4788,13 @@
         <v>34853</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>297</v>
+        <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H24" s="7">
         <v>81</v>
@@ -4779,13 +4803,13 @@
         <v>88930</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M24" s="7">
         <v>112</v>
@@ -4794,13 +4818,13 @@
         <v>123784</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4839,13 @@
         <v>54573</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -4830,13 +4854,13 @@
         <v>103184</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -4845,13 +4869,13 @@
         <v>157757</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,7 +4982,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4979,7 +5003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C7771E-667D-4884-991E-CB2CF21102F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FA1DF6-F3FE-463D-B840-4BB340C4DAB4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5136,10 +5160,10 @@
         <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,10 +5178,10 @@
         <v>2717</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>328</v>
@@ -5187,10 +5211,10 @@
         <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5229,13 @@
         <v>16334</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -5220,13 +5244,13 @@
         <v>14431</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M6" s="7">
         <v>32</v>
@@ -5235,13 +5259,13 @@
         <v>30765</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5333,13 @@
         <v>9499</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5324,13 +5348,13 @@
         <v>8186</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -5339,13 +5363,13 @@
         <v>17685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5384,13 @@
         <v>5781</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -5375,28 +5399,28 @@
         <v>26797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>32578</v>
+        <v>32577</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5435,13 @@
         <v>99766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -5426,28 +5450,28 @@
         <v>114969</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
       </c>
       <c r="N10" s="7">
-        <v>214736</v>
+        <v>214735</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,7 +5513,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>37</v>
@@ -5515,13 +5539,13 @@
         <v>7732</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -5530,13 +5554,13 @@
         <v>18418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>177</v>
+        <v>370</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -5545,13 +5569,13 @@
         <v>26150</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5590,13 @@
         <v>20288</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5581,10 +5605,10 @@
         <v>35808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>379</v>
@@ -5709,7 +5733,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5739,10 +5763,10 @@
         <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5915,7 +5939,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5933,7 +5957,7 @@
         <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5945,10 +5969,10 @@
         <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>207</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -5957,13 +5981,13 @@
         <v>19672</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,10 +6005,10 @@
         <v>423</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>14</v>
+        <v>424</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -5993,10 +6017,10 @@
         <v>40443</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>426</v>
+        <v>258</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>427</v>
@@ -6008,13 +6032,13 @@
         <v>52648</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6068,13 @@
         <v>192274</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
@@ -6059,13 +6083,13 @@
         <v>345079</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6157,13 @@
         <v>32260</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -6148,13 +6172,13 @@
         <v>55450</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -6163,13 +6187,13 @@
         <v>87710</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6208,13 @@
         <v>50478</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -6327,7 +6351,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6348,7 +6372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96213B7-0D3D-40CD-A2A2-93F2775BDDB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B79559-AB90-489B-A04A-9593EDADC1CA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6472,13 +6496,13 @@
         <v>724</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>73</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -6487,10 +6511,10 @@
         <v>7174</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>468</v>
@@ -6505,10 +6529,10 @@
         <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,7 +6547,7 @@
         <v>1341</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>471</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -6538,13 +6562,13 @@
         <v>7690</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -6553,13 +6577,13 @@
         <v>9030</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>477</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6598,13 @@
         <v>27600</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H6" s="7">
         <v>76</v>
@@ -6589,13 +6613,13 @@
         <v>30557</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>483</v>
+        <v>386</v>
       </c>
       <c r="M6" s="7">
         <v>119</v>
@@ -6604,13 +6628,13 @@
         <v>58157</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,10 +6705,10 @@
         <v>397</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -6696,10 +6720,10 @@
         <v>487</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M8" s="7">
         <v>69</v>
@@ -6708,13 +6732,13 @@
         <v>31826</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>489</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>490</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6753,13 @@
         <v>14358</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>399</v>
+        <v>492</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
@@ -6744,13 +6768,13 @@
         <v>29474</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>281</v>
+        <v>495</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M9" s="7">
         <v>89</v>
@@ -6759,13 +6783,13 @@
         <v>43832</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6804,13 @@
         <v>100480</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H10" s="7">
         <v>218</v>
@@ -6795,13 +6819,13 @@
         <v>95299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M10" s="7">
         <v>381</v>
@@ -6810,13 +6834,13 @@
         <v>195779</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,13 +6908,13 @@
         <v>12559</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>153</v>
+        <v>511</v>
       </c>
       <c r="H12" s="7">
         <v>52</v>
@@ -6899,13 +6923,13 @@
         <v>26326</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M12" s="7">
         <v>75</v>
@@ -6914,13 +6938,13 @@
         <v>38885</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,13 +6959,13 @@
         <v>13604</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>516</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>519</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -6950,13 +6974,13 @@
         <v>48533</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -6965,13 +6989,13 @@
         <v>62137</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>522</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,13 +7010,13 @@
         <v>147682</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>309</v>
@@ -7001,13 +7025,13 @@
         <v>166982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M14" s="7">
         <v>521</v>
@@ -7016,13 +7040,13 @@
         <v>314665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,7 +7102,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7090,13 +7114,13 @@
         <v>7938</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -7105,13 +7129,13 @@
         <v>17349</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -7120,13 +7144,13 @@
         <v>25287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>539</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,13 +7165,13 @@
         <v>14358</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>543</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>544</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -7156,13 +7180,13 @@
         <v>30126</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>542</v>
+        <v>473</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>544</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -7171,13 +7195,13 @@
         <v>44484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,13 +7216,13 @@
         <v>125893</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>58</v>
+        <v>548</v>
       </c>
       <c r="H18" s="7">
         <v>213</v>
@@ -7207,13 +7231,13 @@
         <v>232990</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>548</v>
+        <v>262</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M18" s="7">
         <v>378</v>
@@ -7222,13 +7246,13 @@
         <v>358884</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,7 +7308,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7296,13 +7320,13 @@
         <v>12126</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>555</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -7401,10 +7425,10 @@
         <v>571</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H22" s="7">
         <v>375</v>
@@ -7413,13 +7437,13 @@
         <v>216825</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M22" s="7">
         <v>649</v>
@@ -7428,13 +7452,13 @@
         <v>402199</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,13 +7526,13 @@
         <v>42727</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H24" s="7">
         <v>202</v>
@@ -7517,13 +7541,13 @@
         <v>105948</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>583</v>
+        <v>74</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>376</v>
+        <v>584</v>
       </c>
       <c r="M24" s="7">
         <v>273</v>
@@ -7532,13 +7556,13 @@
         <v>148675</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>279</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,13 +7577,13 @@
         <v>66406</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>251</v>
+        <v>587</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>588</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>333</v>
+        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>310</v>
@@ -7568,13 +7592,13 @@
         <v>174661</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>333</v>
+        <v>591</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="M25" s="7">
         <v>408</v>
@@ -7583,13 +7607,13 @@
         <v>241066</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,13 +7628,13 @@
         <v>587029</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>1191</v>
@@ -7619,13 +7643,13 @@
         <v>742654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>366</v>
+        <v>600</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>2048</v>
@@ -7634,13 +7658,13 @@
         <v>1329683</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,7 +7720,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
